--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>71453.33209563601</v>
+        <v>67043.11173166765</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>68267.09933914823</v>
+        <v>63638.69514858876</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>65581.59610647884</v>
+        <v>60986.49829025598</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>63679.66606575371</v>
+        <v>59158.28271038923</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>62989.18034322919</v>
+        <v>59047.70175721747</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>65045.16878995838</v>
+        <v>61416.45909166508</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>65735.67059900584</v>
+        <v>62203.99472669174</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>72887.15761874811</v>
+        <v>68139.62847221398</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>88662.44524877175</v>
+        <v>83848.01092779738</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>97667.49916889489</v>
+        <v>91916.71612380526</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>100703.8172073192</v>
+        <v>96108.54484813957</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>102439.7785367463</v>
+        <v>98041.20968461643</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>102221.1569665458</v>
+        <v>99045.93193375376</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>106251.4461141129</v>
+        <v>102493.430456687</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>107974.7191885176</v>
+        <v>104419.8284175442</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>108084.5607805249</v>
+        <v>103747.783576557</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>103351.2455807469</v>
+        <v>99317.29358574738</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>93968.4910064846</v>
+        <v>90218.81058963129</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>92900.66663583269</v>
+        <v>89252.77238537514</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>90492.33598286319</v>
+        <v>87437.25454090333</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>88254.03071195107</v>
+        <v>84452.79099025221</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>85657.87396552991</v>
+        <v>82767.28359457446</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>83644.2365360822</v>
+        <v>80366.88417436466</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>79825.02032287372</v>
+        <v>76260.43086307991</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67043.11173166765</v>
+        <v>74107.74448106618</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>63638.69514858876</v>
+        <v>70103.87168517186</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>60986.49829025598</v>
+        <v>66740.12165126778</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>59158.28271038923</v>
+        <v>63950.19071297276</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>59047.70175721747</v>
+        <v>62815.86644126129</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>61416.45909166508</v>
+        <v>64397.29147207199</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>62203.99472669174</v>
+        <v>65143.17165758974</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>68139.62847221398</v>
+        <v>72217.35464526717</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>83848.01092779738</v>
+        <v>88145.49880963346</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>91916.71612380526</v>
+        <v>97351.48440994957</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>96108.54484813957</v>
+        <v>101289.2699103402</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>98041.20968461643</v>
+        <v>102719.3602059575</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>99045.93193375376</v>
+        <v>103954.4797775987</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>102493.430456687</v>
+        <v>107916.4737841847</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>104419.8284175442</v>
+        <v>109087.1281679656</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>103747.783576557</v>
+        <v>106697.2795579919</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>99317.29358574738</v>
+        <v>100528.1278129718</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>90218.81058963129</v>
+        <v>92800.63566401665</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>89252.77238537514</v>
+        <v>90054.59211346184</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>87437.25454090333</v>
+        <v>86562.54541493443</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>84452.79099025221</v>
+        <v>84079.22294763885</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>82767.28359457446</v>
+        <v>80850.41620926266</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>80366.88417436466</v>
+        <v>78627.59173169297</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>76260.43086307991</v>
+        <v>74369.82822427993</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>74107.74448106618</v>
+        <v>69537.50235085144</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>70103.87168517186</v>
+        <v>66160.69788691076</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>66740.12165126778</v>
+        <v>63533.57535585358</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>63950.19071297276</v>
+        <v>61914.50724907436</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>62815.86644126129</v>
+        <v>61601.04072939097</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>64397.29147207199</v>
+        <v>64471.97873921077</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>65143.17165758974</v>
+        <v>64260.34470661664</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>72217.35464526717</v>
+        <v>70886.82128722106</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>88145.49880963346</v>
+        <v>86443.26320669496</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>97351.48440994957</v>
+        <v>95436.12649770497</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>101289.2699103402</v>
+        <v>99627.03605611675</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>102719.3602059575</v>
+        <v>100856.8412328064</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>103954.4797775987</v>
+        <v>101277.1105894262</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>107916.4737841847</v>
+        <v>106231.7412323149</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>109087.1281679656</v>
+        <v>107788.9396071027</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>106697.2795579919</v>
+        <v>107195.1593901128</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>100528.1278129718</v>
+        <v>101240.9064968331</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>92800.63566401665</v>
+        <v>93653.42728908508</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>90054.59211346184</v>
+        <v>93424.08779871046</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>86562.54541493443</v>
+        <v>90050.91305920052</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>84079.22294763885</v>
+        <v>86648.22020518464</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>80850.41620926266</v>
+        <v>84589.1167204576</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>78627.59173169297</v>
+        <v>81945.70882217711</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>74369.82822427993</v>
+        <v>77902.09198495571</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>69537.50235085144</v>
+        <v>71750.58279512587</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>66160.69788691076</v>
+        <v>68361.05443881683</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>63533.57535585358</v>
+        <v>65947.2121159064</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>61914.50724907436</v>
+        <v>63328.13796922159</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>61601.04072939097</v>
+        <v>61535.81826507926</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>64471.97873921077</v>
+        <v>61521.4935095781</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>64260.34470661664</v>
+        <v>62145.65034095009</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>70886.82128722106</v>
+        <v>65230.01313850818</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>86443.26320669496</v>
+        <v>76050.45164303236</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>95436.12649770497</v>
+        <v>83163.98021685792</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>99627.03605611675</v>
+        <v>87435.78113876002</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>100856.8412328064</v>
+        <v>90029.18766313445</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>101277.1105894262</v>
+        <v>89556.94075210145</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>106231.7412323149</v>
+        <v>91678.15558480455</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>107788.9396071027</v>
+        <v>93320.0532725768</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>107195.1593901128</v>
+        <v>91256.15543192351</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>101240.9064968331</v>
+        <v>85944.18944403916</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>93653.42728908508</v>
+        <v>78687.30431731854</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>93424.08779871046</v>
+        <v>79769.89330996886</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>90050.91305920052</v>
+        <v>78350.29922490357</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>86648.22020518464</v>
+        <v>75859.7368880241</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>84589.1167204576</v>
+        <v>73807.34503893749</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>81945.70882217711</v>
+        <v>71761.17140618867</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>77902.09198495571</v>
+        <v>68499.72999005426</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,198 +433,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>71750.58279512587</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>68361.05443881683</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>65947.2121159064</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>63328.13796922159</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>61535.81826507926</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>61521.4935095781</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>62145.65034095009</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>65230.01313850818</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>76050.45164303236</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>83163.98021685792</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>87435.78113876002</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>90029.18766313445</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>89556.94075210145</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>91678.15558480455</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>93320.0532725768</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>91256.15543192351</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>85944.18944403916</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>78687.30431731854</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>79769.89330996886</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>78350.29922490357</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>75859.7368880241</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>73807.34503893749</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>71761.17140618867</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>68499.72999005426</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,198 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>72861.1282798293</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>69335.56608025795</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>66537.75603693828</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>64167.49999966469</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>63812.01336810566</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>66555.78069807183</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>66451.94826527465</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>72289.67388169841</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>88683.90869576289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>97359.28029647554</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>101156.7777300106</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>102750.1808690556</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>102937.6130950573</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>106470.954737687</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>107952.4215135879</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>107469.6324529373</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>102862.5479607558</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>92801.04664529997</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>93583.02318242504</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>92069.85168083146</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90473.1478324323</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>89090.09475814531</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>86009.38071636338</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>81739.19789414028</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>72861.1282798293</v>
+        <v>76967.70419412958</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69335.56608025795</v>
+        <v>73122.20889194263</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>66537.75603693828</v>
+        <v>70725.74783093514</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>64167.49999966469</v>
+        <v>68098.81025130041</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>63812.01336810566</v>
+        <v>67910.28900395616</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>66555.78069807183</v>
+        <v>70226.82069670397</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>66451.94826527465</v>
+        <v>69393.63595397383</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>72289.67388169841</v>
+        <v>76980.54220899289</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>88683.90869576289</v>
+        <v>93357.60055638835</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>97359.28029647554</v>
+        <v>103365.0224778993</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>101156.7777300106</v>
+        <v>105994.473181633</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>102750.1808690556</v>
+        <v>107570.7537779342</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>102937.6130950573</v>
+        <v>107311.767157036</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>106470.954737687</v>
+        <v>111523.1777586502</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>107952.4215135879</v>
+        <v>112207.8557901332</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>107469.6324529373</v>
+        <v>110046.3280357686</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>102862.5479607558</v>
+        <v>104377.5102720648</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>92801.04664529997</v>
+        <v>95625.33735195844</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>93583.02318242504</v>
+        <v>94948.48479019343</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>92069.85168083146</v>
+        <v>93364.10569037174</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>90473.1478324323</v>
+        <v>92041.73822530184</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>89090.09475814531</v>
+        <v>90217.24316566849</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>86009.38071636338</v>
+        <v>87734.83651502534</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>81739.19789414028</v>
+        <v>83385.80505003418</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>76967.70419412958</v>
+        <v>79310.29493432186</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>73122.20889194263</v>
+        <v>75447.55685955647</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>70725.74783093514</v>
+        <v>72043.89638000228</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>68098.81025130041</v>
+        <v>69196.32078440927</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>67910.28900395616</v>
+        <v>67131.74371131844</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>70226.82069670397</v>
+        <v>68671.36134637721</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>69393.63595397383</v>
+        <v>67757.53226381926</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>76980.54220899289</v>
+        <v>74614.61929174699</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>93357.60055638835</v>
+        <v>91681.29636352883</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>103365.0224778993</v>
+        <v>101945.9024963139</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>105994.473181633</v>
+        <v>106113.5089937975</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>107570.7537779342</v>
+        <v>109954.1284283688</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>107311.767157036</v>
+        <v>106836.5349802831</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>111523.1777586502</v>
+        <v>111901.1962339398</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>112207.8557901332</v>
+        <v>113231.1845662394</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>110046.3280357686</v>
+        <v>111313.5139915933</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>104377.5102720648</v>
+        <v>105974.1910418968</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>95625.33735195844</v>
+        <v>96900.68083783676</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>94948.48479019343</v>
+        <v>96210.77011779824</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>93364.10569037174</v>
+        <v>91751.55221477148</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>92041.73822530184</v>
+        <v>88212.71055978983</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>90217.24316566849</v>
+        <v>86548.42145439067</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>87734.83651502534</v>
+        <v>83732.71736037903</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>83385.80505003418</v>
+        <v>79537.95300588143</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>79310.29493432186</v>
+        <v>77702.24346113286</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>75447.55685955647</v>
+        <v>74085.50664471337</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>72043.89638000228</v>
+        <v>70678.60667668255</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>69196.32078440927</v>
+        <v>68140.55074960417</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>67131.74371131844</v>
+        <v>67039.57047637305</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>68671.36134637721</v>
+        <v>68878.26493947132</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>67757.53226381926</v>
+        <v>67751.73602760972</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>74614.61929174699</v>
+        <v>75376.12995402003</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>91681.29636352883</v>
+        <v>92417.15994755663</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>101945.9024963139</v>
+        <v>101434.0749808139</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>106113.5089937975</v>
+        <v>104913.6565515227</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>109954.1284283688</v>
+        <v>107245.8483886183</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>106836.5349802831</v>
+        <v>107428.1303214865</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>111901.1962339398</v>
+        <v>112731.0911551177</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>113231.1845662394</v>
+        <v>113316.6833184237</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>111313.5139915933</v>
+        <v>111833.7466133764</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>105974.1910418968</v>
+        <v>107984.5090059463</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>96900.68083783676</v>
+        <v>98256.98063123882</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>96210.77011779824</v>
+        <v>97846.48300360978</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>91751.55221477148</v>
+        <v>96432.07925719096</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>88212.71055978983</v>
+        <v>95374.77481209961</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>86548.42145439067</v>
+        <v>94031.37225065011</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>83732.71736037903</v>
+        <v>91323.65295800245</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>79537.95300588143</v>
+        <v>86389.17590393595</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>77702.24346113286</v>
+        <v>82816.009497661</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>74085.50664471337</v>
+        <v>79558.61187402515</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>70678.60667668255</v>
+        <v>76310.17794339839</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>68140.55074960417</v>
+        <v>73432.76335876354</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>67039.57047637305</v>
+        <v>70195.67301431234</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>68878.26493947132</v>
+        <v>67350.40689567411</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>67751.73602760972</v>
+        <v>62031.77163284658</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>75376.12995402003</v>
+        <v>65600.48676546068</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>92417.15994755663</v>
+        <v>69153.16566171375</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>101434.0749808139</v>
+        <v>72326.65762243434</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>104913.6565515227</v>
+        <v>75258.05332370648</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>107245.8483886183</v>
+        <v>77238.57646855003</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>107428.1303214865</v>
+        <v>79816.16097583801</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>112731.0911551177</v>
+        <v>82700.26991495803</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>113316.6833184237</v>
+        <v>87943.70741930383</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>111833.7466133764</v>
+        <v>88906.37721443188</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>107984.5090059463</v>
+        <v>87776.22367633288</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>98256.98063123882</v>
+        <v>84846.07044401555</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>97846.48300360978</v>
+        <v>87445.21903467769</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>96432.07925719096</v>
+        <v>89182.452773989</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>95374.77481209961</v>
+        <v>90772.98143469871</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>94031.37225065011</v>
+        <v>91508.96614786683</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>91323.65295800245</v>
+        <v>91786.63851431805</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>86389.17590393595</v>
+        <v>89082.21184272859</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>82816.009497661</v>
+        <v>81682.49829491088</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>79558.61187402515</v>
+        <v>77241.56571653939</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>76310.17794339839</v>
+        <v>73503.19647234611</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>73432.76335876354</v>
+        <v>70617.77081552926</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>70195.67301431234</v>
+        <v>69370.25005676555</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>67350.40689567411</v>
+        <v>70784.67586938152</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>62031.77163284658</v>
+        <v>69656.51708711557</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>65600.48676546068</v>
+        <v>77081.97649177468</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>69153.16566171375</v>
+        <v>94435.81370641869</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>72326.65762243434</v>
+        <v>104755.5244264455</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>75258.05332370648</v>
+        <v>108308.0981077663</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>77238.57646855003</v>
+        <v>110474.5388543621</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>79816.16097583801</v>
+        <v>109519.7620330767</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>82700.26991495803</v>
+        <v>111814.5471502343</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>87943.70741930383</v>
+        <v>111097.800681771</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>88906.37721443188</v>
+        <v>110235.4720641605</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>87776.22367633288</v>
+        <v>106182.3294474303</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>84846.07044401555</v>
+        <v>97948.78381483283</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>87445.21903467769</v>
+        <v>96949.84968706618</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>89182.452773989</v>
+        <v>95457.28151656644</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>90772.98143469871</v>
+        <v>93684.19939017289</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>91508.96614786683</v>
+        <v>92625.91409910157</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>91786.63851431805</v>
+        <v>89946.50120463938</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>89082.21184272859</v>
+        <v>86529.4038337066</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>81682.49829491088</v>
+        <v>80481.35249999999</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>77241.56571653939</v>
+        <v>76684.38649999999</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>73503.19647234611</v>
+        <v>73148.4185</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>70617.77081552926</v>
+        <v>70233.01949999999</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>69370.25005676555</v>
+        <v>69945.78599999999</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>70784.67586938152</v>
+        <v>71728.76949999999</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>69656.51708711557</v>
+        <v>71326.977</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>77081.97649177468</v>
+        <v>78479.6195</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>94435.81370641869</v>
+        <v>96090.1575</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>104755.5244264455</v>
+        <v>103946.433</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>108308.0981077663</v>
+        <v>109627.2535</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>110474.5388543621</v>
+        <v>109393.1745</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>109519.7620330767</v>
+        <v>108805.5535</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>111814.5471502343</v>
+        <v>112895.9605</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>111097.800681771</v>
+        <v>113043.8395</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>110235.4720641605</v>
+        <v>111417.3165</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>106182.3294474303</v>
+        <v>106857.008</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>97948.78381483283</v>
+        <v>97964.3285</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>96949.84968706618</v>
+        <v>99365.18399999999</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>95457.28151656644</v>
+        <v>97770.826</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>93684.19939017289</v>
+        <v>96380.898</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>92625.91409910157</v>
+        <v>96000.213</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>89946.50120463938</v>
+        <v>93150.34050000001</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>86529.4038337066</v>
+        <v>87899.9515</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>80481.35249999999</v>
+        <v>72460.53474823777</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>76684.38649999999</v>
+        <v>69128.72505808208</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>73148.4185</v>
+        <v>66341.88180090868</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>70233.01949999999</v>
+        <v>63791.50791102484</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>69945.78599999999</v>
+        <v>62446.80496848492</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>71728.76949999999</v>
+        <v>61468.82971891388</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>71326.977</v>
+        <v>61487.04973454258</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>78479.6195</v>
+        <v>64579.97350986234</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>96090.1575</v>
+        <v>71330.50305228567</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>103946.433</v>
+        <v>76760.93943798903</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>109627.2535</v>
+        <v>80677.08114079821</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>109393.1745</v>
+        <v>81395.44119636065</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>108805.5535</v>
+        <v>81065.03132507185</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>112895.9605</v>
+        <v>81888.66927467386</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>113043.8395</v>
+        <v>85032.38984891489</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>111417.3165</v>
+        <v>84582.85555556563</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>106857.008</v>
+        <v>81368.02810180184</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>97964.3285</v>
+        <v>80318.30811149621</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>99365.18399999999</v>
+        <v>82315.59080832239</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>97770.826</v>
+        <v>84536.59426668822</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>96380.898</v>
+        <v>83670.20958505932</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>96000.213</v>
+        <v>83518.59453045402</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>93150.34050000001</v>
+        <v>82848.74960105533</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>87899.9515</v>
+        <v>79331.51385154107</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>72460.53474823777</v>
+        <v>73303.57209245772</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69128.72505808208</v>
+        <v>69996.49426258687</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>66341.88180090868</v>
+        <v>67352.29750351419</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>63791.50791102484</v>
+        <v>64777.80292230453</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>62446.80496848492</v>
+        <v>64645.22173689886</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>61468.82971891388</v>
+        <v>67323.31236904059</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>61487.04973454258</v>
+        <v>67299.50380321605</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>64579.97350986234</v>
+        <v>72662.17442876496</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>71330.50305228567</v>
+        <v>88486.30291684365</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>76760.93943798903</v>
+        <v>97673.19597505673</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>80677.08114079821</v>
+        <v>102152.0786721448</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>81395.44119636065</v>
+        <v>102207.5360816811</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>81065.03132507185</v>
+        <v>102787.0150887881</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>81888.66927467386</v>
+        <v>106750.4892649202</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>85032.38984891489</v>
+        <v>106887.273802493</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>84582.85555556563</v>
+        <v>104380.0409036494</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>81368.02810180184</v>
+        <v>100139.0962381116</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>80318.30811149621</v>
+        <v>91146.88819159759</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>82315.59080832239</v>
+        <v>90356.49322132593</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>84536.59426668822</v>
+        <v>88933.55142855708</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>83670.20958505932</v>
+        <v>87187.11569680319</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>83518.59453045402</v>
+        <v>84791.4262532634</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>82848.74960105533</v>
+        <v>81293.23952288678</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>79331.51385154107</v>
+        <v>76753.33483251851</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>73303.57209245772</v>
+        <v>76617.89384858565</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69996.49426258687</v>
+        <v>72241.62606426013</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>67352.29750351419</v>
+        <v>69258.72732073106</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>64777.80292230453</v>
+        <v>66478.10933061691</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>64645.22173689886</v>
+        <v>64802.30256497666</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>67323.31236904059</v>
+        <v>64096.37880141272</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>67299.50380321605</v>
+        <v>62720.70952149436</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>72662.17442876496</v>
+        <v>65319.41100251421</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>88486.30291684365</v>
+        <v>73222.02298507578</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>97673.19597505673</v>
+        <v>78890.28804140349</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>102152.0786721448</v>
+        <v>82305.32934475451</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>102207.5360816811</v>
+        <v>83992.2204709472</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>102787.0150887881</v>
+        <v>81708.85766991691</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>106750.4892649202</v>
+        <v>83537.80851053994</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>106887.273802493</v>
+        <v>83825.26655059501</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>104380.0409036494</v>
+        <v>82992.72293425066</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>100139.0962381116</v>
+        <v>80757.75910449831</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>91146.88819159759</v>
+        <v>79091.69357466768</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>90356.49322132593</v>
+        <v>82601.34948879662</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>88933.55142855708</v>
+        <v>81771.57327572181</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>87187.11569680319</v>
+        <v>79777.6218110089</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>84791.4262532634</v>
+        <v>77050.55496722442</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>81293.23952288678</v>
+        <v>74922.36287793868</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>76753.33483251851</v>
+        <v>71819.88758842958</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>76617.89384858565</v>
+        <v>67477.66905413473</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>72241.62606426013</v>
+        <v>64122.11951149303</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>69258.72732073106</v>
+        <v>62574.13871349033</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>66478.10933061691</v>
+        <v>60973.49679513348</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>64802.30256497666</v>
+        <v>60879.16604411871</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>64096.37880141272</v>
+        <v>63882.90556188919</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>62720.70952149436</v>
+        <v>63938.28624512946</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>65319.41100251421</v>
+        <v>70529.41023952424</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>73222.02298507578</v>
+        <v>84189.47718710327</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>78890.28804140349</v>
+        <v>90508.1221890134</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>82305.32934475451</v>
+        <v>92875.42047626144</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>83992.2204709472</v>
+        <v>94727.00078499186</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>81708.85766991691</v>
+        <v>91501.91594179011</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>83537.80851053994</v>
+        <v>94896.521380304</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>83825.26655059501</v>
+        <v>95445.06239869088</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>82992.72293425066</v>
+        <v>94088.23803787978</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>80757.75910449831</v>
+        <v>89152.05982478207</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>79091.69357466768</v>
+        <v>83412.98811676129</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>82601.34948879662</v>
+        <v>83554.63872678358</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>81771.57327572181</v>
+        <v>80323.43696802825</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>79777.6218110089</v>
+        <v>79037.85700430113</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>77050.55496722442</v>
+        <v>76992.95007782558</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>74922.36287793868</v>
+        <v>74412.76984318219</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>71819.88758842958</v>
+        <v>70855.3773670299</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67477.66905413473</v>
+        <v>65490.97652451508</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>64122.11951149303</v>
+        <v>62526.16260984209</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>62574.13871349033</v>
+        <v>60367.94398585002</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>60973.49679513348</v>
+        <v>58598.65508066331</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>60879.16604411871</v>
+        <v>58928.72293532812</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>63882.90556188919</v>
+        <v>62707.00805384065</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>63938.28624512946</v>
+        <v>63780.04017997128</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>70529.41023952424</v>
+        <v>70341.91836723284</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>84189.47718710327</v>
+        <v>85318.32505643652</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>90508.1221890134</v>
+        <v>92332.91992569293</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>92875.42047626144</v>
+        <v>97055.31671802221</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>94727.00078499186</v>
+        <v>99389.32805701185</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>91501.91594179011</v>
+        <v>97464.16776457951</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>94896.521380304</v>
+        <v>101461.6258321211</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>95445.06239869088</v>
+        <v>103092.1323862914</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>94088.23803787978</v>
+        <v>102442.8344496576</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>89152.05982478207</v>
+        <v>98107.23082194131</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>83412.98811676129</v>
+        <v>90031.66561785711</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>83554.63872678358</v>
+        <v>90333.16187821308</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>80323.43696802825</v>
+        <v>87548.79118056811</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>79037.85700430113</v>
+        <v>86118.20735377351</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>76992.95007782558</v>
+        <v>85962.51943495168</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>74412.76984318219</v>
+        <v>82330.94843868678</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>70855.3773670299</v>
+        <v>77291.86507444084</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>65490.97652451508</v>
+        <v>70482.64025914281</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>62526.16260984209</v>
+        <v>67248.92608988992</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>60367.94398585002</v>
+        <v>65367.62318998673</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>58598.65508066331</v>
+        <v>63655.22384549295</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>58928.72293532812</v>
+        <v>64485.47225229294</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>62707.00805384065</v>
+        <v>67258.20963799911</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>63780.04017997128</v>
+        <v>67728.60906559542</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>70341.91836723284</v>
+        <v>74351.85573842336</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>85318.32505643652</v>
+        <v>90649.91592695963</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>92332.91992569293</v>
+        <v>98136.56274569161</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>97055.31671802221</v>
+        <v>101634.5664908106</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>99389.32805701185</v>
+        <v>102375.0062526682</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>97464.16776457951</v>
+        <v>102180.7111567177</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>101461.6258321211</v>
+        <v>105720.8461907454</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>103092.1323862914</v>
+        <v>107885.4689157814</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>102442.8344496576</v>
+        <v>105715.4594783319</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>98107.23082194131</v>
+        <v>100173.8485378911</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>90031.66561785711</v>
+        <v>91928.56276114617</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>90333.16187821308</v>
+        <v>92411.75849153126</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>87548.79118056811</v>
+        <v>88970.42368486388</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>86118.20735377351</v>
+        <v>87079.43201396792</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>85962.51943495168</v>
+        <v>85633.92518418249</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>82330.94843868678</v>
+        <v>83689.35184525093</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>77291.86507444084</v>
+        <v>79784.71441345511</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>70482.64025914281</v>
+        <v>74491.42776453645</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>67248.92608988992</v>
+        <v>70930.62982702204</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>65367.62318998673</v>
+        <v>68101.82216161081</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>63655.22384549295</v>
+        <v>64882.75054419819</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>64485.47225229294</v>
+        <v>64444.63412756344</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>67258.20963799911</v>
+        <v>66859.1544168058</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>67728.60906559542</v>
+        <v>66946.48466220252</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>74351.85573842336</v>
+        <v>73886.4879099315</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>90649.91592695963</v>
+        <v>90315.98945130885</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>98136.56274569161</v>
+        <v>98964.39532109298</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>101634.5664908106</v>
+        <v>102132.6553790563</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>102375.0062526682</v>
+        <v>103748.4239321214</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>102180.7111567177</v>
+        <v>104241.3513318067</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>105720.8461907454</v>
+        <v>106669.7432510437</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>107885.4689157814</v>
+        <v>108302.0697632892</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>105715.4594783319</v>
+        <v>105793.2779686499</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>100173.8485378911</v>
+        <v>100340.8830228046</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>91928.56276114617</v>
+        <v>91786.96364345407</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>92411.75849153126</v>
+        <v>90962.83599628381</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>88970.42368486388</v>
+        <v>88503.21818653503</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>87079.43201396792</v>
+        <v>86732.3221062157</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>85633.92518418249</v>
+        <v>85941.43135558086</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>83689.35184525093</v>
+        <v>83357.86558224871</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>79784.71441345511</v>
+        <v>79508.37539613163</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>74491.42776453645</v>
+        <v>69558.77063519611</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>70930.62982702204</v>
+        <v>65789.22778384826</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>68101.82216161081</v>
+        <v>62805.47619618164</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>64882.75054419819</v>
+        <v>60663.98826309984</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>64444.63412756344</v>
+        <v>60623.33912578635</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>66859.1544168058</v>
+        <v>63261.62112043737</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>66946.48466220252</v>
+        <v>63872.87106878438</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>73886.4879099315</v>
+        <v>70311.25048947106</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>90315.98945130885</v>
+        <v>87888.86178402032</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>98964.39532109298</v>
+        <v>95639.15601608463</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>102132.6553790563</v>
+        <v>100425.8142991323</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>103748.4239321214</v>
+        <v>102357.4719302255</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>104241.3513318067</v>
+        <v>101962.3151288686</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>106669.7432510437</v>
+        <v>105820.1113070404</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>108302.0697632892</v>
+        <v>105624.6049056241</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>105793.2779686499</v>
+        <v>104640.2348783341</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>100340.8830228046</v>
+        <v>99698.72768430505</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>91786.96364345407</v>
+        <v>94801.62774983187</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>90962.83599628381</v>
+        <v>92087.17084853728</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>88503.21818653503</v>
+        <v>88084.3101515717</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>86732.3221062157</v>
+        <v>85698.29265509204</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>85941.43135558086</v>
+        <v>83514.34032068169</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>83357.86558224871</v>
+        <v>80108.54038067423</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>79508.37539613163</v>
+        <v>75633.44261675818</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>69558.77063519611</v>
+        <v>68167.80074300063</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>65789.22778384826</v>
+        <v>64727.41124399531</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>62805.47619618164</v>
+        <v>61872.16408221556</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>60663.98826309984</v>
+        <v>59613.16101416754</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>60623.33912578635</v>
+        <v>59020.97385039528</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>63261.62112043737</v>
+        <v>57942.06991144604</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>63872.87106878438</v>
+        <v>59181.95741041536</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>70311.25048947106</v>
+        <v>64427.65846256819</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>87888.86178402032</v>
+        <v>79077.00238575567</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>95639.15601608463</v>
+        <v>87516.48350778047</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>100425.8142991323</v>
+        <v>92797.41579756576</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>102357.4719302255</v>
+        <v>94683.75671120643</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>101962.3151288686</v>
+        <v>95092.38550612803</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>105820.1113070404</v>
+        <v>100335.01096609</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>105624.6049056241</v>
+        <v>102271.4527926675</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>104640.2348783341</v>
+        <v>102172.503100633</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>99698.72768430505</v>
+        <v>96736.67965227956</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>94801.62774983187</v>
+        <v>89658.34275176621</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>92087.17084853728</v>
+        <v>89947.15536975206</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>88084.3101515717</v>
+        <v>86042.84187242055</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>85698.29265509204</v>
+        <v>83018.07323844137</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>83514.34032068169</v>
+        <v>80802.65845041932</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>80108.54038067423</v>
+        <v>77104.21751225877</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>75633.44261675818</v>
+        <v>73044.00738060598</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>68167.80074300063</v>
+        <v>67321.30330434983</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>64727.41124399531</v>
+        <v>64093.86616112318</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>61872.16408221556</v>
+        <v>61320.06976510783</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>59613.16101416754</v>
+        <v>58954.25926994084</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>59020.97385039528</v>
+        <v>57743.9832567243</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>57942.06991144604</v>
+        <v>58462.0816099057</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>59181.95741041536</v>
+        <v>59563.08882591299</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>64427.65846256819</v>
+        <v>65701.35650669328</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>79077.00238575567</v>
+        <v>77951.70645781475</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>87516.48350778047</v>
+        <v>85281.11778264699</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>92797.41579756576</v>
+        <v>90494.10192629894</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>94683.75671120643</v>
+        <v>92740.29880981376</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>95092.38550612803</v>
+        <v>92540.33391927264</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>100335.01096609</v>
+        <v>95780.14929109551</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>102271.4527926675</v>
+        <v>99374.0282885701</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>102172.503100633</v>
+        <v>98697.75203037387</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>96736.67965227956</v>
+        <v>94411.07272267557</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>89658.34275176621</v>
+        <v>87795.22509714085</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>89947.15536975206</v>
+        <v>88030.92967204386</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>86042.84187242055</v>
+        <v>83757.27827481621</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>83018.07323844137</v>
+        <v>81183.61804593845</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>80802.65845041932</v>
+        <v>79067.85791766542</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>77104.21751225877</v>
+        <v>76405.08300879775</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>73044.00738060598</v>
+        <v>72744.01609565297</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67321.30330434983</v>
+        <v>60856.58780776655</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>64093.86616112318</v>
+        <v>57881.17288160624</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>61320.06976510783</v>
+        <v>55399.93828265802</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>58954.25926994084</v>
+        <v>53707.54692618801</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>57743.9832567243</v>
+        <v>53680.8856395722</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>58462.0816099057</v>
+        <v>56634.9832135402</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>59563.08882591299</v>
+        <v>58446.84605949695</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>65701.35650669328</v>
+        <v>63142.72549009701</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>77951.70645781475</v>
+        <v>76716.99583502614</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>85281.11778264699</v>
+        <v>83491.60492431262</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>90494.10192629894</v>
+        <v>87563.66895977985</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>92740.29880981376</v>
+        <v>90303.87260687441</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>92540.33391927264</v>
+        <v>90165.42497353299</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>95780.14929109551</v>
+        <v>93864.75891707004</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>99374.0282885701</v>
+        <v>94482.71627596006</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>98697.75203037387</v>
+        <v>92926.86975363505</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>94411.07272267557</v>
+        <v>89804.61302349941</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>87795.22509714085</v>
+        <v>83681.57571663187</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>88030.92967204386</v>
+        <v>83714.51021982718</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>83757.27827481621</v>
+        <v>79427.54689600211</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>81183.61804593845</v>
+        <v>76549.06870090037</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>79067.85791766542</v>
+        <v>74386.40041606507</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>76405.08300879775</v>
+        <v>71540.08295675143</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>72744.01609565297</v>
+        <v>67740.71402363165</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,198 +433,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>60856.58780776655</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>57881.17288160624</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>55399.93828265802</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>53707.54692618801</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>53680.8856395722</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>56634.9832135402</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>58446.84605949695</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>63142.72549009701</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>76716.99583502614</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>83491.60492431262</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>87563.66895977985</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>90303.87260687441</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>90165.42497353299</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>93864.75891707004</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>94482.71627596006</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>92926.86975363505</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>89804.61302349941</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>83681.57571663187</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>83714.51021982718</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>79427.54689600211</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>76549.06870090037</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>74386.40041606507</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>71540.08295675143</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>67740.71402363165</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,198 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>68791.06537956726</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>65495.55142286177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62663.9791668365</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60250.11710926666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>59015.12704028445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>59752.9735500648</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>60882.98492971385</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>64982.44611553789</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78815.43780739288</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>86283.91831547346</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>91548.74322556194</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>93820.0138679119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>94710.64763835003</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>98025.60507874654</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>100527.7850264558</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99270.5548464454</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>96087.68740313567</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89900.38308189338</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90135.73759670195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>85746.26804179003</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>83083.59090816182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>81758.12457946912</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>78913.91136084734</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>75125.43874466437</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>68791.06537956726</v>
+        <v>67215.43566852933</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>65495.55142286177</v>
+        <v>63724.96605913646</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>62663.9791668365</v>
+        <v>61062.15186725625</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>60250.11710926666</v>
+        <v>58690.39048434388</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>59015.12704028445</v>
+        <v>57953.41081697737</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>59752.9735500648</v>
+        <v>58513.92399294129</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>60882.98492971385</v>
+        <v>58560.18761346512</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>64982.44611553789</v>
+        <v>61749.84626794878</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>78815.43780739288</v>
+        <v>70574.08841398767</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>86283.91831547346</v>
+        <v>78215.70537354975</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>91548.74322556194</v>
+        <v>82056.68372650631</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>93820.0138679119</v>
+        <v>83494.33321479897</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>94710.64763835003</v>
+        <v>83824.15966913324</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>98025.60507874654</v>
+        <v>87684.05903897769</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>100527.7850264558</v>
+        <v>88802.73964341768</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>99270.5548464454</v>
+        <v>86996.52656865345</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>96087.68740313567</v>
+        <v>84935.95057665437</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>89900.38308189338</v>
+        <v>81144.72874415584</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>90135.73759670195</v>
+        <v>83246.884137196</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>85746.26804179003</v>
+        <v>80548.97919203494</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>83083.59090816182</v>
+        <v>78069.16904515574</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>81758.12457946912</v>
+        <v>76168.53320712211</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>78913.91136084734</v>
+        <v>72298.03743205291</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>75125.43874466437</v>
+        <v>67378.63761467961</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67215.43566852933</v>
+        <v>78150.1224852913</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>63724.96605913646</v>
+        <v>73931.51120751112</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>61062.15186725625</v>
+        <v>70665.639883871</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>58690.39048434388</v>
+        <v>68221.08144896063</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>57953.41081697737</v>
+        <v>67442.62655372635</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>58513.92399294129</v>
+        <v>67697.40905076484</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>58560.18761346512</v>
+        <v>66805.99719848631</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>61749.84626794878</v>
+        <v>73518.8360027173</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>70574.08841398767</v>
+        <v>90665.86311579018</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>78215.70537354975</v>
+        <v>99986.44599549515</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>82056.68372650631</v>
+        <v>104010.8232173354</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>83494.33321479897</v>
+        <v>106016.5690550003</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>83824.15966913324</v>
+        <v>107320.0925482591</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>87684.05903897769</v>
+        <v>111547.1563226645</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>88802.73964341768</v>
+        <v>112002.2930044165</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>86996.52656865345</v>
+        <v>109747.5369375676</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>84935.95057665437</v>
+        <v>103869.0857919438</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>81144.72874415584</v>
+        <v>96041.01666867564</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>83246.884137196</v>
+        <v>95816.15130808466</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>80548.97919203494</v>
+        <v>92433.58920697204</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>78069.16904515574</v>
+        <v>90165.2556892329</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>76168.53320712211</v>
+        <v>89664.82647591364</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>72298.03743205291</v>
+        <v>86158.80010198322</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>67378.63761467961</v>
+        <v>81709.70824788923</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>78150.1224852913</v>
+        <v>62571.12072320965</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>73931.51120751112</v>
+        <v>59899.37074190185</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>70665.639883871</v>
+        <v>57604.13848545878</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>68221.08144896063</v>
+        <v>55622.02440855451</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>67442.62655372635</v>
+        <v>54266.86604207053</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>67697.40905076484</v>
+        <v>50591.89196889948</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>66805.99719848631</v>
+        <v>51144.27192719288</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>73518.8360027173</v>
+        <v>52731.81479717858</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>90665.86311579018</v>
+        <v>56988.54555370286</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>99986.44599549515</v>
+        <v>58281.83659174193</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>104010.8232173354</v>
+        <v>59752.09067195727</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>106016.5690550003</v>
+        <v>62149.50612100232</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>107320.0925482591</v>
+        <v>61576.60090854611</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>111547.1563226645</v>
+        <v>62235.34537345747</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>112002.2930044165</v>
+        <v>67754.57274461222</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>109747.5369375676</v>
+        <v>69893.34611073122</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>103869.0857919438</v>
+        <v>68437.95732827831</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>96041.01666867564</v>
+        <v>71998.10076565947</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>95816.15130808466</v>
+        <v>76077.10319770859</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>92433.58920697204</v>
+        <v>74503.27397244604</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>90165.2556892329</v>
+        <v>73791.42400978223</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>89664.82647591364</v>
+        <v>72106.95254674542</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>86158.80010198322</v>
+        <v>69699.20400806151</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>81709.70824788923</v>
+        <v>66551.90821901168</v>
       </c>
     </row>
   </sheetData>

--- a/forecasted_energy.xlsx
+++ b/forecasted_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>62571.12072320965</v>
+        <v>62208.62629273553</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>59899.37074190185</v>
+        <v>58805.1019062683</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>57604.13848545878</v>
+        <v>56285.79176129154</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>55622.02440855451</v>
+        <v>54703.01415524773</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>54266.86604207053</v>
+        <v>54584.11291479823</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>50591.89196889948</v>
+        <v>57112.05649044221</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51144.27192719288</v>
+        <v>59253.90071486575</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52731.81479717858</v>
+        <v>64593.50152421186</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>56988.54555370286</v>
+        <v>78456.48878893994</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>58281.83659174193</v>
+        <v>86350.50914902876</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>59752.09067195727</v>
+        <v>92249.97499439519</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>62149.50612100232</v>
+        <v>94792.49663669834</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>61576.60090854611</v>
+        <v>93228.89088881374</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>62235.34537345747</v>
+        <v>97317.60165627471</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>67754.57274461222</v>
+        <v>99421.89021995616</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>69893.34611073122</v>
+        <v>99417.54468084118</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>68437.95732827831</v>
+        <v>95631.9643715858</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>71998.10076565947</v>
+        <v>87723.1247734716</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>76077.10319770859</v>
+        <v>87842.39287150698</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>74503.27397244604</v>
+        <v>83504.0884357371</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>73791.42400978223</v>
+        <v>80770.32506350434</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>72106.95254674542</v>
+        <v>78638.70163399943</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>69699.20400806151</v>
+        <v>76099.87217492863</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>66551.90821901168</v>
+        <v>72227.06164279362</v>
       </c>
     </row>
   </sheetData>
